--- a/src/data/raw/KPITTECH.NS_data.xlsx
+++ b/src/data/raw/KPITTECH.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>686.2221069335938</v>
+        <v>686.22216796875</v>
       </c>
       <c r="C2" t="n">
-        <v>697.6797967902592</v>
+        <v>697.6798588445051</v>
       </c>
       <c r="D2" t="n">
-        <v>683.4940826559395</v>
+        <v>683.494143448455</v>
       </c>
       <c r="E2" t="n">
-        <v>691.1821510747835</v>
+        <v>691.1822125511046</v>
       </c>
       <c r="F2" t="n">
         <v>524130</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>675.7068481445312</v>
+        <v>675.7069091796875</v>
       </c>
       <c r="C3" t="n">
-        <v>685.4781110365788</v>
+        <v>685.4781729543523</v>
       </c>
       <c r="D3" t="n">
-        <v>670.2507995038638</v>
+        <v>670.2508600461869</v>
       </c>
       <c r="E3" t="n">
-        <v>685.4781110365788</v>
+        <v>685.4781729543523</v>
       </c>
       <c r="F3" t="n">
         <v>838579</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>709.881591796875</v>
+        <v>709.8815307617188</v>
       </c>
       <c r="C6" t="n">
-        <v>748.5699414679452</v>
+        <v>748.56987710639</v>
       </c>
       <c r="D6" t="n">
-        <v>704.3759541454764</v>
+        <v>704.3758935836913</v>
       </c>
       <c r="E6" t="n">
-        <v>714.4944577073945</v>
+        <v>714.4943962756272</v>
       </c>
       <c r="F6" t="n">
         <v>6183258</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>687.0156860351562</v>
+        <v>687.0157470703125</v>
       </c>
       <c r="C9" t="n">
-        <v>705.3182606033329</v>
+        <v>705.318323264508</v>
       </c>
       <c r="D9" t="n">
-        <v>684.5852523525681</v>
+        <v>684.5853131718021</v>
       </c>
       <c r="E9" t="n">
-        <v>700.9533976408311</v>
+        <v>700.9534599142274</v>
       </c>
       <c r="F9" t="n">
         <v>867422</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>686.8670043945312</v>
+        <v>686.866943359375</v>
       </c>
       <c r="C10" t="n">
-        <v>693.3646507485798</v>
+        <v>693.3645891360413</v>
       </c>
       <c r="D10" t="n">
-        <v>671.5900427193188</v>
+        <v>671.5899830416769</v>
       </c>
       <c r="E10" t="n">
-        <v>689.6446172770917</v>
+        <v>689.6445559951162</v>
       </c>
       <c r="F10" t="n">
         <v>1673248</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>687.7100830078125</v>
+        <v>687.7101440429688</v>
       </c>
       <c r="C11" t="n">
-        <v>698.7710050638299</v>
+        <v>698.7710670806572</v>
       </c>
       <c r="D11" t="n">
-        <v>682.5516252702877</v>
+        <v>682.5516858476241</v>
       </c>
       <c r="E11" t="n">
-        <v>690.3389304795293</v>
+        <v>690.3389917479991</v>
       </c>
       <c r="F11" t="n">
         <v>634770</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>687.0653076171875</v>
+        <v>687.0653686523438</v>
       </c>
       <c r="C13" t="n">
-        <v>702.3422681778758</v>
+        <v>702.3423305701543</v>
       </c>
       <c r="D13" t="n">
-        <v>680.0220689773078</v>
+        <v>680.0221293867809</v>
       </c>
       <c r="E13" t="n">
-        <v>697.8782283377623</v>
+        <v>697.8782903334796</v>
       </c>
       <c r="F13" t="n">
         <v>619850</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>689.843017578125</v>
+        <v>689.8429565429688</v>
       </c>
       <c r="C14" t="n">
-        <v>691.4797959448746</v>
+        <v>691.4797347649013</v>
       </c>
       <c r="D14" t="n">
-        <v>680.4685213052187</v>
+        <v>680.4684610994886</v>
       </c>
       <c r="E14" t="n">
-        <v>683.5437246954164</v>
+        <v>683.5436642176019</v>
       </c>
       <c r="F14" t="n">
         <v>632608</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>691.8270263671875</v>
+        <v>691.8269653320312</v>
       </c>
       <c r="C19" t="n">
-        <v>712.1135597960888</v>
+        <v>712.1134969711908</v>
       </c>
       <c r="D19" t="n">
-        <v>682.948534663172</v>
+        <v>682.9484744113042</v>
       </c>
       <c r="E19" t="n">
-        <v>701.3006991881822</v>
+        <v>701.3006373172287</v>
       </c>
       <c r="F19" t="n">
         <v>986918</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>703.6318969726562</v>
+        <v>703.6319580078125</v>
       </c>
       <c r="C20" t="n">
-        <v>719.0576231773236</v>
+        <v>719.057685550554</v>
       </c>
       <c r="D20" t="n">
-        <v>682.6012962933977</v>
+        <v>682.6013555042962</v>
       </c>
       <c r="E20" t="n">
-        <v>694.4062263604933</v>
+        <v>694.406286595387</v>
       </c>
       <c r="F20" t="n">
         <v>1172465</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>756.8036499023438</v>
+        <v>756.8035278320312</v>
       </c>
       <c r="C21" t="n">
-        <v>766.1780860137684</v>
+        <v>766.1779624313856</v>
       </c>
       <c r="D21" t="n">
-        <v>696.0926902350897</v>
+        <v>696.0925779572852</v>
       </c>
       <c r="E21" t="n">
-        <v>703.6319340134913</v>
+        <v>703.631820519628</v>
       </c>
       <c r="F21" t="n">
         <v>4110246</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>770.096435546875</v>
+        <v>770.0964965820312</v>
       </c>
       <c r="C25" t="n">
-        <v>813.000817050337</v>
+        <v>813.0008814859448</v>
       </c>
       <c r="D25" t="n">
-        <v>766.9219952105466</v>
+        <v>766.9220559941078</v>
       </c>
       <c r="E25" t="n">
-        <v>777.7349155772052</v>
+        <v>777.7349772177607</v>
       </c>
       <c r="F25" t="n">
         <v>3855942</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>850.122314453125</v>
+        <v>850.1223754882812</v>
       </c>
       <c r="C29" t="n">
-        <v>854.6439651610521</v>
+        <v>854.6440265208435</v>
       </c>
       <c r="D29" t="n">
-        <v>809.9242227979737</v>
+        <v>809.9242809470784</v>
       </c>
       <c r="E29" t="n">
-        <v>812.8558624838931</v>
+        <v>812.8559208434771</v>
       </c>
       <c r="F29" t="n">
         <v>3862427</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>860.7557373046875</v>
+        <v>860.7556762695312</v>
       </c>
       <c r="C33" t="n">
-        <v>869.5505962158275</v>
+        <v>869.5505345570384</v>
       </c>
       <c r="D33" t="n">
-        <v>840.8305579759417</v>
+        <v>840.830498353656</v>
       </c>
       <c r="E33" t="n">
-        <v>842.7187492468819</v>
+        <v>842.7186894907069</v>
       </c>
       <c r="F33" t="n">
         <v>1946554</v>
@@ -1101,16 +1101,16 @@
         <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>850.7681884765625</v>
+        <v>850.7682495117188</v>
       </c>
       <c r="C34" t="n">
-        <v>870.6933656834601</v>
+        <v>870.6934281480732</v>
       </c>
       <c r="D34" t="n">
-        <v>842.718659505094</v>
+        <v>842.7187199627673</v>
       </c>
       <c r="E34" t="n">
-        <v>855.7370484972294</v>
+        <v>855.7371098888577</v>
       </c>
       <c r="F34" t="n">
         <v>1084471</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>816.97998046875</v>
+        <v>816.9800415039062</v>
       </c>
       <c r="C36" t="n">
-        <v>840.2342707698092</v>
+        <v>840.2343335422531</v>
       </c>
       <c r="D36" t="n">
-        <v>812.6074198287865</v>
+        <v>812.6074805372763</v>
       </c>
       <c r="E36" t="n">
-        <v>826.0730190152618</v>
+        <v>826.0730807297432</v>
       </c>
       <c r="F36" t="n">
         <v>1319818</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>806.2969360351562</v>
+        <v>806.2969970703125</v>
       </c>
       <c r="C37" t="n">
-        <v>827.8121253805905</v>
+        <v>827.812188044406</v>
       </c>
       <c r="D37" t="n">
-        <v>802.5702908128546</v>
+        <v>802.5703515659109</v>
       </c>
       <c r="E37" t="n">
-        <v>808.9304562542625</v>
+        <v>808.9305174887712</v>
       </c>
       <c r="F37" t="n">
         <v>1365678</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>818.4209594726562</v>
+        <v>818.4210205078125</v>
       </c>
       <c r="C38" t="n">
-        <v>822.8432572252234</v>
+        <v>822.8433185901802</v>
       </c>
       <c r="D38" t="n">
-        <v>807.191347441048</v>
+        <v>807.1914076387365</v>
       </c>
       <c r="E38" t="n">
-        <v>809.9242205779675</v>
+        <v>809.9242809794647</v>
       </c>
       <c r="F38" t="n">
         <v>1319393</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>811.7130737304688</v>
+        <v>811.7130126953125</v>
       </c>
       <c r="C40" t="n">
-        <v>827.8121945673479</v>
+        <v>827.8121323216502</v>
       </c>
       <c r="D40" t="n">
-        <v>800.2846940935846</v>
+        <v>800.2846339177628</v>
       </c>
       <c r="E40" t="n">
-        <v>827.8121945673479</v>
+        <v>827.8121323216502</v>
       </c>
       <c r="F40" t="n">
         <v>968555</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>840.929931640625</v>
+        <v>840.9299926757812</v>
       </c>
       <c r="C43" t="n">
-        <v>850.9173287403813</v>
+        <v>850.9173905004284</v>
       </c>
       <c r="D43" t="n">
-        <v>829.8990253509414</v>
+        <v>829.8990855854685</v>
       </c>
       <c r="E43" t="n">
-        <v>837.7001724366469</v>
+        <v>837.7002332373854</v>
       </c>
       <c r="F43" t="n">
         <v>854661</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>817.0794677734375</v>
+        <v>817.0794067382812</v>
       </c>
       <c r="C46" t="n">
-        <v>830.7935112102547</v>
+        <v>830.7934491506709</v>
       </c>
       <c r="D46" t="n">
-        <v>813.7006182265959</v>
+        <v>813.7005574438369</v>
       </c>
       <c r="E46" t="n">
-        <v>830.7935112102547</v>
+        <v>830.7934491506709</v>
       </c>
       <c r="F46" t="n">
         <v>682924</v>
@@ -1361,16 +1361,16 @@
         <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>820.6073608398438</v>
+        <v>820.6072998046875</v>
       </c>
       <c r="C47" t="n">
-        <v>829.2531907598999</v>
+        <v>829.2531290816838</v>
       </c>
       <c r="D47" t="n">
-        <v>816.880715241116</v>
+        <v>816.8806544831403</v>
       </c>
       <c r="E47" t="n">
-        <v>821.6508094764797</v>
+        <v>821.6507483637138</v>
       </c>
       <c r="F47" t="n">
         <v>619748</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>817.9737548828125</v>
+        <v>817.9738159179688</v>
       </c>
       <c r="C48" t="n">
-        <v>826.3711408854917</v>
+        <v>826.3712025472399</v>
       </c>
       <c r="D48" t="n">
-        <v>810.2223449784289</v>
+        <v>810.2224054351943</v>
       </c>
       <c r="E48" t="n">
-        <v>819.8619460508821</v>
+        <v>819.8620072269306</v>
       </c>
       <c r="F48" t="n">
         <v>880339</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>787.7631225585938</v>
+        <v>787.76318359375</v>
       </c>
       <c r="C49" t="n">
-        <v>820.8060434892324</v>
+        <v>820.8061070845235</v>
       </c>
       <c r="D49" t="n">
-        <v>783.0923817546849</v>
+        <v>783.0924424279565</v>
       </c>
       <c r="E49" t="n">
-        <v>817.8744037869361</v>
+        <v>817.8744671550866</v>
       </c>
       <c r="F49" t="n">
         <v>892370</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>773.651611328125</v>
+        <v>773.6515502929688</v>
       </c>
       <c r="C50" t="n">
-        <v>792.9804915905803</v>
+        <v>792.9804290305242</v>
       </c>
       <c r="D50" t="n">
-        <v>763.2170038535645</v>
+        <v>763.2169436416185</v>
       </c>
       <c r="E50" t="n">
-        <v>787.6140977702197</v>
+        <v>787.6140356335309</v>
       </c>
       <c r="F50" t="n">
         <v>1070179</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>884.0596923828125</v>
+        <v>884.0596313476562</v>
       </c>
       <c r="C54" t="n">
-        <v>889.4260863276993</v>
+        <v>889.4260249220491</v>
       </c>
       <c r="D54" t="n">
-        <v>846.7435597745967</v>
+        <v>846.7435013157326</v>
       </c>
       <c r="E54" t="n">
-        <v>862.9917710407576</v>
+        <v>862.9917114601229</v>
       </c>
       <c r="F54" t="n">
         <v>5786626</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>875.96044921875</v>
+        <v>875.9603881835938</v>
       </c>
       <c r="C57" t="n">
-        <v>886.4447329766481</v>
+        <v>886.4446712109681</v>
       </c>
       <c r="D57" t="n">
-        <v>870.5940554970111</v>
+        <v>870.5939948357744</v>
       </c>
       <c r="E57" t="n">
-        <v>882.4696444879635</v>
+        <v>882.4695829992597</v>
       </c>
       <c r="F57" t="n">
         <v>1052678</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>867.066162109375</v>
+        <v>867.0661010742188</v>
       </c>
       <c r="C59" t="n">
-        <v>888.3329094305763</v>
+        <v>888.3328468983956</v>
       </c>
       <c r="D59" t="n">
-        <v>861.6500920030142</v>
+        <v>861.6500313491099</v>
       </c>
       <c r="E59" t="n">
-        <v>885.9478321151952</v>
+        <v>885.9477697509067</v>
       </c>
       <c r="F59" t="n">
         <v>1341967</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>890.3700561523438</v>
+        <v>890.3701171875</v>
       </c>
       <c r="C61" t="n">
-        <v>903.2394159814093</v>
+        <v>903.2394778987643</v>
       </c>
       <c r="D61" t="n">
-        <v>884.6558670200008</v>
+        <v>884.6559276634475</v>
       </c>
       <c r="E61" t="n">
-        <v>887.6868595591939</v>
+        <v>887.6869204104162</v>
       </c>
       <c r="F61" t="n">
         <v>1565811</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>831.7872314453125</v>
+        <v>831.7872924804688</v>
       </c>
       <c r="C67" t="n">
-        <v>837.9983069489364</v>
+        <v>837.998368439851</v>
       </c>
       <c r="D67" t="n">
-        <v>795.762993524294</v>
+        <v>795.7630519160518</v>
       </c>
       <c r="E67" t="n">
-        <v>797.0052086250187</v>
+        <v>797.0052671079283</v>
       </c>
       <c r="F67" t="n">
         <v>3923132</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>863.6873168945312</v>
+        <v>863.687255859375</v>
       </c>
       <c r="C69" t="n">
-        <v>866.0723942215275</v>
+        <v>866.0723330178223</v>
       </c>
       <c r="D69" t="n">
-        <v>830.2469217722868</v>
+        <v>830.2468631003003</v>
       </c>
       <c r="E69" t="n">
-        <v>836.7561169644591</v>
+        <v>836.7560578324801</v>
       </c>
       <c r="F69" t="n">
         <v>3121347</v>
@@ -1881,16 +1881,16 @@
         <v>45036</v>
       </c>
       <c r="B73" t="n">
-        <v>851.06640625</v>
+        <v>851.0664672851562</v>
       </c>
       <c r="C73" t="n">
-        <v>866.3207829262351</v>
+        <v>866.3208450553757</v>
       </c>
       <c r="D73" t="n">
-        <v>846.9919044597939</v>
+        <v>846.9919652027428</v>
       </c>
       <c r="E73" t="n">
-        <v>849.6751011206551</v>
+        <v>849.6751620560324</v>
       </c>
       <c r="F73" t="n">
         <v>1114666</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>843.4143676757812</v>
+        <v>843.4144287109375</v>
       </c>
       <c r="C74" t="n">
-        <v>859.5631638082222</v>
+        <v>859.5632260120143</v>
       </c>
       <c r="D74" t="n">
-        <v>839.7373988869265</v>
+        <v>839.7374596559924</v>
       </c>
       <c r="E74" t="n">
-        <v>850.6688916535019</v>
+        <v>850.6689532136445</v>
       </c>
       <c r="F74" t="n">
         <v>624965</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>844.4081420898438</v>
+        <v>844.408203125</v>
       </c>
       <c r="C75" t="n">
-        <v>858.6190705948396</v>
+        <v>858.6191326571842</v>
       </c>
       <c r="D75" t="n">
-        <v>835.4641934378142</v>
+        <v>835.4642538264877</v>
       </c>
       <c r="E75" t="n">
-        <v>844.7062615805713</v>
+        <v>844.7063226372761</v>
       </c>
       <c r="F75" t="n">
         <v>893943</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>913.8230590820312</v>
+        <v>913.8231201171875</v>
       </c>
       <c r="C78" t="n">
-        <v>942.8908909921845</v>
+        <v>942.8909539688102</v>
       </c>
       <c r="D78" t="n">
-        <v>901.3512322225274</v>
+        <v>901.3512924246778</v>
       </c>
       <c r="E78" t="n">
-        <v>903.3387762847601</v>
+        <v>903.3388366196606</v>
       </c>
       <c r="F78" t="n">
         <v>4410295</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>911.0902709960938</v>
+        <v>911.0902099609375</v>
       </c>
       <c r="C79" t="n">
-        <v>936.6302267095253</v>
+        <v>936.6301639634132</v>
       </c>
       <c r="D79" t="n">
-        <v>904.8295187469738</v>
+        <v>904.8294581312338</v>
       </c>
       <c r="E79" t="n">
-        <v>926.1956194093132</v>
+        <v>926.1955573622294</v>
       </c>
       <c r="F79" t="n">
         <v>1332189</v>
@@ -2181,16 +2181,16 @@
         <v>45058</v>
       </c>
       <c r="B88" t="n">
-        <v>893.0533447265625</v>
+        <v>893.0532836914062</v>
       </c>
       <c r="C88" t="n">
-        <v>905.276729737617</v>
+        <v>905.2766678670614</v>
       </c>
       <c r="D88" t="n">
-        <v>889.773848188809</v>
+        <v>889.7737873777879</v>
       </c>
       <c r="E88" t="n">
-        <v>893.4011407084275</v>
+        <v>893.4010796495014</v>
       </c>
       <c r="F88" t="n">
         <v>978246</v>
@@ -2241,16 +2241,16 @@
         <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>927.3384399414062</v>
+        <v>927.3385009765625</v>
       </c>
       <c r="C91" t="n">
-        <v>932.655096302963</v>
+        <v>932.6551576880487</v>
       </c>
       <c r="D91" t="n">
-        <v>921.7236034320705</v>
+        <v>921.723664097672</v>
       </c>
       <c r="E91" t="n">
-        <v>923.2142615508286</v>
+        <v>923.2143223145415</v>
       </c>
       <c r="F91" t="n">
         <v>933709</v>
@@ -2341,16 +2341,16 @@
         <v>45070</v>
       </c>
       <c r="B96" t="n">
-        <v>973.5488891601562</v>
+        <v>973.548828125</v>
       </c>
       <c r="C96" t="n">
-        <v>981.5487426571078</v>
+        <v>981.5486811204131</v>
       </c>
       <c r="D96" t="n">
-        <v>906.1214139029081</v>
+        <v>906.1213570950141</v>
       </c>
       <c r="E96" t="n">
-        <v>917.6492069772129</v>
+        <v>917.6491494466017</v>
       </c>
       <c r="F96" t="n">
         <v>2376849</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>1013.945617675781</v>
+        <v>1013.945678710938</v>
       </c>
       <c r="C97" t="n">
-        <v>1022.243650745158</v>
+        <v>1022.24371227982</v>
       </c>
       <c r="D97" t="n">
-        <v>977.87170413592</v>
+        <v>977.8717629995822</v>
       </c>
       <c r="E97" t="n">
-        <v>978.3685901644444</v>
+        <v>978.3686490580169</v>
       </c>
       <c r="F97" t="n">
         <v>4131582</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>1093.447387695312</v>
+        <v>1093.447509765625</v>
       </c>
       <c r="C102" t="n">
-        <v>1111.434636757849</v>
+        <v>1111.434760836222</v>
       </c>
       <c r="D102" t="n">
-        <v>1042.566188156964</v>
+        <v>1042.566304546999</v>
       </c>
       <c r="E102" t="n">
-        <v>1053.39832729398</v>
+        <v>1053.398444893294</v>
       </c>
       <c r="F102" t="n">
         <v>3471313</v>
@@ -2481,16 +2481,16 @@
         <v>45079</v>
       </c>
       <c r="B103" t="n">
-        <v>1107.906860351562</v>
+        <v>1107.90673828125</v>
       </c>
       <c r="C103" t="n">
-        <v>1144.825520092247</v>
+        <v>1144.825393954199</v>
       </c>
       <c r="D103" t="n">
-        <v>1097.12445675507</v>
+        <v>1097.124335872774</v>
       </c>
       <c r="E103" t="n">
-        <v>1102.242407604304</v>
+        <v>1102.242286158106</v>
       </c>
       <c r="F103" t="n">
         <v>3605727</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>1124.006103515625</v>
+        <v>1124.005981445312</v>
       </c>
       <c r="C105" t="n">
-        <v>1129.173670469206</v>
+        <v>1129.173547837681</v>
       </c>
       <c r="D105" t="n">
-        <v>1078.292581982878</v>
+        <v>1078.292464877186</v>
       </c>
       <c r="E105" t="n">
-        <v>1113.521758205277</v>
+        <v>1113.521637273594</v>
       </c>
       <c r="F105" t="n">
         <v>1602421</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>1146.017944335938</v>
+        <v>1146.017822265625</v>
       </c>
       <c r="C106" t="n">
-        <v>1152.775643182068</v>
+        <v>1152.775520391946</v>
       </c>
       <c r="D106" t="n">
-        <v>1113.074496063748</v>
+        <v>1113.074377502471</v>
       </c>
       <c r="E106" t="n">
-        <v>1129.670441713117</v>
+        <v>1129.67032138409</v>
       </c>
       <c r="F106" t="n">
         <v>1472527</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>1132.55224609375</v>
+        <v>1132.552490234375</v>
       </c>
       <c r="C108" t="n">
-        <v>1135.732267863118</v>
+        <v>1135.73251268925</v>
       </c>
       <c r="D108" t="n">
-        <v>1123.508945458934</v>
+        <v>1123.509187650124</v>
       </c>
       <c r="E108" t="n">
-        <v>1126.291434179617</v>
+        <v>1126.291676970619</v>
       </c>
       <c r="F108" t="n">
         <v>844970</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>1055.584716796875</v>
+        <v>1055.584594726562</v>
       </c>
       <c r="C117" t="n">
-        <v>1066.466594497497</v>
+        <v>1066.466471168779</v>
       </c>
       <c r="D117" t="n">
-        <v>1048.429605925019</v>
+        <v>1048.42948468214</v>
       </c>
       <c r="E117" t="n">
-        <v>1060.851757653988</v>
+        <v>1060.851634974583</v>
       </c>
       <c r="F117" t="n">
         <v>678274</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>1075.410400390625</v>
+        <v>1075.410522460938</v>
       </c>
       <c r="C120" t="n">
-        <v>1082.963043373059</v>
+        <v>1082.963166300676</v>
       </c>
       <c r="D120" t="n">
-        <v>1068.00672616102</v>
+        <v>1068.006847390939</v>
       </c>
       <c r="E120" t="n">
-        <v>1072.627790250226</v>
+        <v>1072.627912004684</v>
       </c>
       <c r="F120" t="n">
         <v>636643</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>1049.025756835938</v>
+        <v>1049.025634765625</v>
       </c>
       <c r="C125" t="n">
-        <v>1063.236745744295</v>
+        <v>1063.236622020316</v>
       </c>
       <c r="D125" t="n">
-        <v>1043.560010534271</v>
+        <v>1043.559889099983</v>
       </c>
       <c r="E125" t="n">
-        <v>1053.299025195812</v>
+        <v>1053.298902628238</v>
       </c>
       <c r="F125" t="n">
         <v>393246</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>1054.292724609375</v>
+        <v>1054.292846679688</v>
       </c>
       <c r="C128" t="n">
-        <v>1078.093515159081</v>
+        <v>1078.093639985147</v>
       </c>
       <c r="D128" t="n">
-        <v>1050.019456543931</v>
+        <v>1050.019578119467</v>
       </c>
       <c r="E128" t="n">
-        <v>1074.714666143388</v>
+        <v>1074.714790578236</v>
       </c>
       <c r="F128" t="n">
         <v>359010</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>1057.671752929688</v>
+        <v>1057.671630859375</v>
       </c>
       <c r="C130" t="n">
-        <v>1061.795810324248</v>
+        <v>1061.795687777961</v>
       </c>
       <c r="D130" t="n">
-        <v>1048.429623365562</v>
+        <v>1048.429502361922</v>
       </c>
       <c r="E130" t="n">
-        <v>1048.429623365562</v>
+        <v>1048.429502361922</v>
       </c>
       <c r="F130" t="n">
         <v>400805</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>1083.857666015625</v>
+        <v>1083.857543945312</v>
       </c>
       <c r="C133" t="n">
-        <v>1093.000321662621</v>
+        <v>1093.00019856261</v>
       </c>
       <c r="D133" t="n">
-        <v>1058.367385015902</v>
+        <v>1058.367265816452</v>
       </c>
       <c r="E133" t="n">
-        <v>1058.367385015902</v>
+        <v>1058.367265816452</v>
       </c>
       <c r="F133" t="n">
         <v>1904514</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>1060.454223632812</v>
+        <v>1060.4541015625</v>
       </c>
       <c r="C134" t="n">
-        <v>1102.590186523579</v>
+        <v>1102.590059602939</v>
       </c>
       <c r="D134" t="n">
-        <v>1051.410921443846</v>
+        <v>1051.41080041452</v>
       </c>
       <c r="E134" t="n">
-        <v>1090.764273825665</v>
+        <v>1090.764148266321</v>
       </c>
       <c r="F134" t="n">
         <v>1090064</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>1077.5966796875</v>
+        <v>1077.596801757812</v>
       </c>
       <c r="C135" t="n">
-        <v>1082.217743902817</v>
+        <v>1082.217866496604</v>
       </c>
       <c r="D135" t="n">
-        <v>1055.68407914658</v>
+        <v>1055.68419873463</v>
       </c>
       <c r="E135" t="n">
-        <v>1064.329847309382</v>
+        <v>1064.329967876825</v>
       </c>
       <c r="F135" t="n">
         <v>739084</v>
@@ -3141,16 +3141,16 @@
         <v>45127</v>
       </c>
       <c r="B136" t="n">
-        <v>1054.093994140625</v>
+        <v>1054.093872070312</v>
       </c>
       <c r="C136" t="n">
-        <v>1075.658921009652</v>
+        <v>1075.658796441993</v>
       </c>
       <c r="D136" t="n">
-        <v>1050.814619070728</v>
+        <v>1050.814497380186</v>
       </c>
       <c r="E136" t="n">
-        <v>1058.367262598147</v>
+        <v>1058.367140032965</v>
       </c>
       <c r="F136" t="n">
         <v>820217</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>994.6665649414062</v>
+        <v>994.66650390625</v>
       </c>
       <c r="C137" t="n">
-        <v>1043.41101590431</v>
+        <v>1043.410951878076</v>
       </c>
       <c r="D137" t="n">
-        <v>987.3623032771339</v>
+        <v>987.362242690185</v>
       </c>
       <c r="E137" t="n">
-        <v>1043.41101590431</v>
+        <v>1043.410951878076</v>
       </c>
       <c r="F137" t="n">
         <v>3300062</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>1050.01953125</v>
+        <v>1050.019409179688</v>
       </c>
       <c r="C139" t="n">
-        <v>1100.105667188906</v>
+        <v>1100.105539295816</v>
       </c>
       <c r="D139" t="n">
-        <v>1032.380077236808</v>
+        <v>1032.379957217176</v>
       </c>
       <c r="E139" t="n">
-        <v>1071.634073491517</v>
+        <v>1071.633948908399</v>
       </c>
       <c r="F139" t="n">
         <v>5582911</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>1064.82666015625</v>
+        <v>1064.826782226562</v>
       </c>
       <c r="C142" t="n">
-        <v>1090.167845255629</v>
+        <v>1090.167970231021</v>
       </c>
       <c r="D142" t="n">
-        <v>1059.708710276129</v>
+        <v>1059.708831759727</v>
       </c>
       <c r="E142" t="n">
-        <v>1078.093491622737</v>
+        <v>1078.093615213942</v>
       </c>
       <c r="F142" t="n">
         <v>865723</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>1085.596557617188</v>
+        <v>1085.5966796875</v>
       </c>
       <c r="C144" t="n">
-        <v>1109.04955256717</v>
+        <v>1109.049677274663</v>
       </c>
       <c r="D144" t="n">
-        <v>1073.025317548747</v>
+        <v>1073.025438205482</v>
       </c>
       <c r="E144" t="n">
-        <v>1081.621469615155</v>
+        <v>1081.621591238487</v>
       </c>
       <c r="F144" t="n">
         <v>1803367</v>
@@ -3321,16 +3321,16 @@
         <v>45140</v>
       </c>
       <c r="B145" t="n">
-        <v>1092.851196289062</v>
+        <v>1092.85107421875</v>
       </c>
       <c r="C145" t="n">
-        <v>1116.652112317151</v>
+        <v>1116.651987588302</v>
       </c>
       <c r="D145" t="n">
-        <v>1074.863944447489</v>
+        <v>1074.863824386333</v>
       </c>
       <c r="E145" t="n">
-        <v>1085.596732304049</v>
+        <v>1085.596611044052</v>
       </c>
       <c r="F145" t="n">
         <v>1881642</v>
@@ -3441,16 +3441,16 @@
         <v>45148</v>
       </c>
       <c r="B151" t="n">
-        <v>1113.670654296875</v>
+        <v>1113.670776367188</v>
       </c>
       <c r="C151" t="n">
-        <v>1137.521183115718</v>
+        <v>1137.521307800306</v>
       </c>
       <c r="D151" t="n">
-        <v>1108.652057000552</v>
+        <v>1108.652178520772</v>
       </c>
       <c r="E151" t="n">
-        <v>1131.906346860936</v>
+        <v>1131.906470930077</v>
       </c>
       <c r="F151" t="n">
         <v>627851</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>1149.67919921875</v>
+        <v>1149.679077148438</v>
       </c>
       <c r="C155" t="n">
-        <v>1159.042405767168</v>
+        <v>1159.042282702691</v>
       </c>
       <c r="D155" t="n">
-        <v>1134.33961496679</v>
+        <v>1134.339494525199</v>
       </c>
       <c r="E155" t="n">
-        <v>1135.53486618906</v>
+        <v>1135.534745620561</v>
       </c>
       <c r="F155" t="n">
         <v>806270</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>1148.13525390625</v>
+        <v>1148.135375976562</v>
       </c>
       <c r="C156" t="n">
-        <v>1160.33727235283</v>
+        <v>1160.337395720467</v>
       </c>
       <c r="D156" t="n">
-        <v>1141.461423923016</v>
+        <v>1141.461545283764</v>
       </c>
       <c r="E156" t="n">
-        <v>1150.874482537115</v>
+        <v>1150.874604898664</v>
       </c>
       <c r="F156" t="n">
         <v>607371</v>
@@ -3581,16 +3581,16 @@
         <v>45160</v>
       </c>
       <c r="B158" t="n">
-        <v>1128.114135742188</v>
+        <v>1128.114013671875</v>
       </c>
       <c r="C158" t="n">
-        <v>1143.503573349429</v>
+        <v>1143.503449613865</v>
       </c>
       <c r="D158" t="n">
-        <v>1122.784993069983</v>
+        <v>1122.784871576324</v>
       </c>
       <c r="E158" t="n">
-        <v>1134.53882408101</v>
+        <v>1134.538701315499</v>
       </c>
       <c r="F158" t="n">
         <v>597113</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>1195.996948242188</v>
+        <v>1195.9970703125</v>
       </c>
       <c r="C166" t="n">
-        <v>1214.524191465751</v>
+        <v>1214.52431542706</v>
       </c>
       <c r="D166" t="n">
-        <v>1165.417245230697</v>
+        <v>1165.41736417987</v>
       </c>
       <c r="E166" t="n">
-        <v>1177.370242617679</v>
+        <v>1177.370362786843</v>
       </c>
       <c r="F166" t="n">
         <v>1370201</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>1173.684936523438</v>
+        <v>1173.684814453125</v>
       </c>
       <c r="C167" t="n">
-        <v>1206.655267623012</v>
+        <v>1206.655142123587</v>
       </c>
       <c r="D167" t="n">
-        <v>1170.447665976352</v>
+        <v>1170.447544242735</v>
       </c>
       <c r="E167" t="n">
-        <v>1196.445414359126</v>
+        <v>1196.445289921586</v>
       </c>
       <c r="F167" t="n">
         <v>592639</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>1161.383178710938</v>
+        <v>1161.383056640625</v>
       </c>
       <c r="C168" t="n">
-        <v>1179.511966223248</v>
+        <v>1179.51184224746</v>
       </c>
       <c r="D168" t="n">
-        <v>1157.847156244419</v>
+        <v>1157.84703454577</v>
       </c>
       <c r="E168" t="n">
-        <v>1179.511966223248</v>
+        <v>1179.51184224746</v>
       </c>
       <c r="F168" t="n">
         <v>827361</v>
@@ -3801,16 +3801,16 @@
         <v>45175</v>
       </c>
       <c r="B169" t="n">
-        <v>1162.877319335938</v>
+        <v>1162.877197265625</v>
       </c>
       <c r="C169" t="n">
-        <v>1175.278628516582</v>
+        <v>1175.278505144471</v>
       </c>
       <c r="D169" t="n">
-        <v>1155.456547902235</v>
+        <v>1155.456426610901</v>
       </c>
       <c r="E169" t="n">
-        <v>1166.114589836526</v>
+        <v>1166.114467426388</v>
       </c>
       <c r="F169" t="n">
         <v>479574</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>1162.279663085938</v>
+        <v>1162.279541015625</v>
       </c>
       <c r="C172" t="n">
-        <v>1185.339013593184</v>
+        <v>1185.338889101025</v>
       </c>
       <c r="D172" t="n">
-        <v>1157.448683861579</v>
+        <v>1157.448562298648</v>
       </c>
       <c r="E172" t="n">
-        <v>1165.965243898641</v>
+        <v>1165.965121441244</v>
       </c>
       <c r="F172" t="n">
         <v>619542</v>
@@ -3921,16 +3921,16 @@
         <v>45183</v>
       </c>
       <c r="B175" t="n">
-        <v>1164.620361328125</v>
+        <v>1164.620483398438</v>
       </c>
       <c r="C175" t="n">
-        <v>1171.393775332566</v>
+        <v>1171.393898112838</v>
       </c>
       <c r="D175" t="n">
-        <v>1135.634366205934</v>
+        <v>1135.634485238064</v>
       </c>
       <c r="E175" t="n">
-        <v>1141.859885845244</v>
+        <v>1141.860005529905</v>
       </c>
       <c r="F175" t="n">
         <v>598321</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>1136.082641601562</v>
+        <v>1136.082763671875</v>
       </c>
       <c r="C177" t="n">
-        <v>1165.018783038983</v>
+        <v>1165.018908218439</v>
       </c>
       <c r="D177" t="n">
-        <v>1130.604184487621</v>
+        <v>1130.604305969282</v>
       </c>
       <c r="E177" t="n">
-        <v>1165.018783038983</v>
+        <v>1165.018908218439</v>
       </c>
       <c r="F177" t="n">
         <v>396231</v>
@@ -3981,16 +3981,16 @@
         <v>45189</v>
       </c>
       <c r="B178" t="n">
-        <v>1124.378662109375</v>
+        <v>1124.378784179688</v>
       </c>
       <c r="C178" t="n">
-        <v>1148.633261495808</v>
+        <v>1148.633386199368</v>
       </c>
       <c r="D178" t="n">
-        <v>1118.601331440133</v>
+        <v>1118.601452883219</v>
       </c>
       <c r="E178" t="n">
-        <v>1136.082638640472</v>
+        <v>1136.082761981449</v>
       </c>
       <c r="F178" t="n">
         <v>374334</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>1047.082641601562</v>
+        <v>1047.08251953125</v>
       </c>
       <c r="C181" t="n">
-        <v>1079.106741729709</v>
+        <v>1079.106615925984</v>
       </c>
       <c r="D181" t="n">
-        <v>1041.903057448066</v>
+        <v>1041.902935981597</v>
       </c>
       <c r="E181" t="n">
-        <v>1074.674219997901</v>
+        <v>1074.674094710925</v>
       </c>
       <c r="F181" t="n">
         <v>504621</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>1123.880615234375</v>
+        <v>1123.880737304688</v>
       </c>
       <c r="C183" t="n">
-        <v>1129.558240292095</v>
+        <v>1129.558362979082</v>
       </c>
       <c r="D183" t="n">
-        <v>1072.831356138282</v>
+        <v>1072.831472663878</v>
       </c>
       <c r="E183" t="n">
-        <v>1084.734500597964</v>
+        <v>1084.73461841642</v>
       </c>
       <c r="F183" t="n">
         <v>1051809</v>
@@ -4101,16 +4101,16 @@
         <v>45197</v>
       </c>
       <c r="B184" t="n">
-        <v>1137.925537109375</v>
+        <v>1137.925415039062</v>
       </c>
       <c r="C184" t="n">
-        <v>1152.069870721824</v>
+        <v>1152.069747134187</v>
       </c>
       <c r="D184" t="n">
-        <v>1121.58974737622</v>
+        <v>1121.58962705832</v>
       </c>
       <c r="E184" t="n">
-        <v>1130.803517503423</v>
+        <v>1130.803396197121</v>
       </c>
       <c r="F184" t="n">
         <v>1537776</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>1147.786743164062</v>
+        <v>1147.78662109375</v>
       </c>
       <c r="C185" t="n">
-        <v>1169.401700403469</v>
+        <v>1169.401576034345</v>
       </c>
       <c r="D185" t="n">
-        <v>1135.734038927038</v>
+        <v>1135.733918138564</v>
       </c>
       <c r="E185" t="n">
-        <v>1137.925494966583</v>
+        <v>1137.925373945042</v>
       </c>
       <c r="F185" t="n">
         <v>1058596</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>1128.761352539062</v>
+        <v>1128.761474609375</v>
       </c>
       <c r="C190" t="n">
-        <v>1142.507348348744</v>
+        <v>1142.507471905622</v>
       </c>
       <c r="D190" t="n">
-        <v>1105.652272595558</v>
+        <v>1105.652392166731</v>
       </c>
       <c r="E190" t="n">
-        <v>1130.55435080717</v>
+        <v>1130.554473071387</v>
       </c>
       <c r="F190" t="n">
         <v>538664</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>1160.48681640625</v>
+        <v>1160.486694335938</v>
       </c>
       <c r="C191" t="n">
-        <v>1170.397795913492</v>
+        <v>1170.397672800655</v>
       </c>
       <c r="D191" t="n">
-        <v>1126.570133768646</v>
+        <v>1126.570015265992</v>
       </c>
       <c r="E191" t="n">
-        <v>1131.500697123065</v>
+        <v>1131.50057810177</v>
       </c>
       <c r="F191" t="n">
         <v>1224492</v>
@@ -4301,16 +4301,16 @@
         <v>45212</v>
       </c>
       <c r="B194" t="n">
-        <v>1196.494995117188</v>
+        <v>1196.4951171875</v>
       </c>
       <c r="C194" t="n">
-        <v>1200.28015961009</v>
+        <v>1200.280282066578</v>
       </c>
       <c r="D194" t="n">
-        <v>1185.43849680353</v>
+        <v>1185.438617745823</v>
       </c>
       <c r="E194" t="n">
-        <v>1194.30366089004</v>
+        <v>1194.303782736786</v>
       </c>
       <c r="F194" t="n">
         <v>570022</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>1224.335571289062</v>
+        <v>1224.335693359375</v>
       </c>
       <c r="C195" t="n">
-        <v>1231.158716231294</v>
+        <v>1231.158838981897</v>
       </c>
       <c r="D195" t="n">
-        <v>1174.381979317715</v>
+        <v>1174.382096407489</v>
       </c>
       <c r="E195" t="n">
-        <v>1175.378062421462</v>
+        <v>1175.378179610549</v>
       </c>
       <c r="F195" t="n">
         <v>1058192</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>1194.004760742188</v>
+        <v>1194.0048828125</v>
       </c>
       <c r="C196" t="n">
-        <v>1230.859835362214</v>
+        <v>1230.859961200443</v>
       </c>
       <c r="D196" t="n">
-        <v>1191.414969006242</v>
+        <v>1191.415090811785</v>
       </c>
       <c r="E196" t="n">
-        <v>1225.182210341404</v>
+        <v>1225.182335599175</v>
       </c>
       <c r="F196" t="n">
         <v>926161</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>1200.130859375</v>
+        <v>1200.130737304688</v>
       </c>
       <c r="C197" t="n">
-        <v>1209.195192479984</v>
+        <v>1209.1950694877</v>
       </c>
       <c r="D197" t="n">
-        <v>1170.397799178147</v>
+        <v>1170.397680132108</v>
       </c>
       <c r="E197" t="n">
-        <v>1197.29204647841</v>
+        <v>1197.291924696845</v>
       </c>
       <c r="F197" t="n">
         <v>920040</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>1143.354125976562</v>
+        <v>1143.35400390625</v>
       </c>
       <c r="C201" t="n">
-        <v>1173.535496871521</v>
+        <v>1173.535371578891</v>
       </c>
       <c r="D201" t="n">
-        <v>1134.239939986129</v>
+        <v>1134.239818888894</v>
       </c>
       <c r="E201" t="n">
-        <v>1158.444811424042</v>
+        <v>1158.444687742571</v>
       </c>
       <c r="F201" t="n">
         <v>824513</v>
@@ -4461,16 +4461,16 @@
         <v>45225</v>
       </c>
       <c r="B202" t="n">
-        <v>1115.961669921875</v>
+        <v>1115.961791992188</v>
       </c>
       <c r="C202" t="n">
-        <v>1131.301373886225</v>
+        <v>1131.301497634483</v>
       </c>
       <c r="D202" t="n">
-        <v>1086.92582341653</v>
+        <v>1086.925942310734</v>
       </c>
       <c r="E202" t="n">
-        <v>1131.301373886225</v>
+        <v>1131.301497634483</v>
       </c>
       <c r="F202" t="n">
         <v>960493</v>
@@ -4541,16 +4541,16 @@
         <v>45231</v>
       </c>
       <c r="B206" t="n">
-        <v>1209.095458984375</v>
+        <v>1209.095581054688</v>
       </c>
       <c r="C206" t="n">
-        <v>1227.174391752739</v>
+        <v>1227.174515648301</v>
       </c>
       <c r="D206" t="n">
-        <v>1199.284064667449</v>
+        <v>1199.284185747203</v>
       </c>
       <c r="E206" t="n">
-        <v>1219.205726871228</v>
+        <v>1219.205849962273</v>
       </c>
       <c r="F206" t="n">
         <v>1169151</v>
@@ -4581,16 +4581,16 @@
         <v>45233</v>
       </c>
       <c r="B208" t="n">
-        <v>1236.63720703125</v>
+        <v>1236.637329101562</v>
       </c>
       <c r="C208" t="n">
-        <v>1261.290264521402</v>
+        <v>1261.290389025254</v>
       </c>
       <c r="D208" t="n">
-        <v>1225.182251025725</v>
+        <v>1225.182371965301</v>
       </c>
       <c r="E208" t="n">
-        <v>1226.17833415664</v>
+        <v>1226.178455194542</v>
       </c>
       <c r="F208" t="n">
         <v>1375775</v>
@@ -4701,16 +4701,16 @@
         <v>45243</v>
       </c>
       <c r="B214" t="n">
-        <v>1388.041870117188</v>
+        <v>1388.0419921875</v>
       </c>
       <c r="C214" t="n">
-        <v>1413.441990453024</v>
+        <v>1413.442114757131</v>
       </c>
       <c r="D214" t="n">
-        <v>1369.763768625326</v>
+        <v>1369.763889088184</v>
       </c>
       <c r="E214" t="n">
-        <v>1409.457657851324</v>
+        <v>1409.457781805032</v>
       </c>
       <c r="F214" t="n">
         <v>840457</v>
@@ -4801,16 +4801,16 @@
         <v>45251</v>
       </c>
       <c r="B219" t="n">
-        <v>1499.902099609375</v>
+        <v>1499.901977539062</v>
       </c>
       <c r="C219" t="n">
-        <v>1617.639082732994</v>
+        <v>1617.638951080595</v>
       </c>
       <c r="D219" t="n">
-        <v>1486.355271100917</v>
+        <v>1486.35515013312</v>
       </c>
       <c r="E219" t="n">
-        <v>1617.639082732994</v>
+        <v>1617.638951080595</v>
       </c>
       <c r="F219" t="n">
         <v>4639119</v>
@@ -4841,16 +4841,16 @@
         <v>45253</v>
       </c>
       <c r="B221" t="n">
-        <v>1440.784423828125</v>
+        <v>1440.784545898438</v>
       </c>
       <c r="C221" t="n">
-        <v>1474.053625359967</v>
+        <v>1474.053750249009</v>
       </c>
       <c r="D221" t="n">
-        <v>1414.537657141374</v>
+        <v>1414.537776987932</v>
       </c>
       <c r="E221" t="n">
-        <v>1444.32056764786</v>
+        <v>1444.320690017772</v>
       </c>
       <c r="F221" t="n">
         <v>2311047</v>
@@ -4861,16 +4861,16 @@
         <v>45254</v>
       </c>
       <c r="B222" t="n">
-        <v>1462.9970703125</v>
+        <v>1462.997192382812</v>
       </c>
       <c r="C222" t="n">
-        <v>1477.041817869065</v>
+        <v>1477.04194111125</v>
       </c>
       <c r="D222" t="n">
-        <v>1430.47493239699</v>
+        <v>1430.475051753704</v>
       </c>
       <c r="E222" t="n">
-        <v>1448.304844414894</v>
+        <v>1448.304965259309</v>
       </c>
       <c r="F222" t="n">
         <v>1609569</v>
@@ -4881,16 +4881,16 @@
         <v>45258</v>
       </c>
       <c r="B223" t="n">
-        <v>1483.96484375</v>
+        <v>1483.964721679688</v>
       </c>
       <c r="C223" t="n">
-        <v>1501.495884268447</v>
+        <v>1501.495760756038</v>
       </c>
       <c r="D223" t="n">
-        <v>1471.663118593547</v>
+        <v>1471.662997535169</v>
       </c>
       <c r="E223" t="n">
-        <v>1477.041992350574</v>
+        <v>1477.041870849733</v>
       </c>
       <c r="F223" t="n">
         <v>1138990</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>1486.753662109375</v>
+        <v>1486.753784179688</v>
       </c>
       <c r="C224" t="n">
-        <v>1505.031763307454</v>
+        <v>1505.031886878495</v>
       </c>
       <c r="D224" t="n">
-        <v>1456.672000086914</v>
+        <v>1456.672119687364</v>
       </c>
       <c r="E224" t="n">
-        <v>1484.661911845539</v>
+        <v>1484.662033744108</v>
       </c>
       <c r="F224" t="n">
         <v>1052656</v>
@@ -4921,16 +4921,16 @@
         <v>45260</v>
       </c>
       <c r="B225" t="n">
-        <v>1493.427490234375</v>
+        <v>1493.427612304688</v>
       </c>
       <c r="C225" t="n">
-        <v>1498.607073890111</v>
+        <v>1498.607196383794</v>
       </c>
       <c r="D225" t="n">
-        <v>1464.541079371754</v>
+        <v>1464.541199080939</v>
       </c>
       <c r="E225" t="n">
-        <v>1481.225471852751</v>
+        <v>1481.22559292569</v>
       </c>
       <c r="F225" t="n">
         <v>1277831</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>1477.241088867188</v>
+        <v>1477.2412109375</v>
       </c>
       <c r="C226" t="n">
-        <v>1502.292481537679</v>
+        <v>1502.292605678088</v>
       </c>
       <c r="D226" t="n">
-        <v>1470.218654381139</v>
+        <v>1470.21877587116</v>
       </c>
       <c r="E226" t="n">
-        <v>1501.047377663711</v>
+        <v>1501.047501701232</v>
       </c>
       <c r="F226" t="n">
         <v>655282</v>
@@ -4961,16 +4961,16 @@
         <v>45264</v>
       </c>
       <c r="B227" t="n">
-        <v>1491.385620117188</v>
+        <v>1491.385498046875</v>
       </c>
       <c r="C227" t="n">
-        <v>1508.020161465922</v>
+        <v>1508.020038034068</v>
       </c>
       <c r="D227" t="n">
-        <v>1439.937896831274</v>
+        <v>1439.937778971971</v>
       </c>
       <c r="E227" t="n">
-        <v>1494.124849007034</v>
+        <v>1494.124726712515</v>
       </c>
       <c r="F227" t="n">
         <v>1382705</v>
@@ -5161,16 +5161,16 @@
         <v>45278</v>
       </c>
       <c r="B237" t="n">
-        <v>1487.650146484375</v>
+        <v>1487.650268554688</v>
       </c>
       <c r="C237" t="n">
-        <v>1512.651808591623</v>
+        <v>1512.651932713466</v>
       </c>
       <c r="D237" t="n">
-        <v>1480.577980618653</v>
+        <v>1480.578102108654</v>
       </c>
       <c r="E237" t="n">
-        <v>1512.651808591623</v>
+        <v>1512.651932713466</v>
       </c>
       <c r="F237" t="n">
         <v>1051979</v>
@@ -5181,16 +5181,16 @@
         <v>45279</v>
       </c>
       <c r="B238" t="n">
-        <v>1495.369750976562</v>
+        <v>1495.369873046875</v>
       </c>
       <c r="C238" t="n">
-        <v>1514.046309065362</v>
+        <v>1514.046432660283</v>
       </c>
       <c r="D238" t="n">
-        <v>1484.362984106026</v>
+        <v>1484.363105277832</v>
       </c>
       <c r="E238" t="n">
-        <v>1492.879543231389</v>
+        <v>1492.87966509842</v>
       </c>
       <c r="F238" t="n">
         <v>750604</v>
@@ -5201,16 +5201,16 @@
         <v>45280</v>
       </c>
       <c r="B239" t="n">
-        <v>1461.6025390625</v>
+        <v>1461.602661132812</v>
       </c>
       <c r="C239" t="n">
-        <v>1538.848833509976</v>
+        <v>1538.848962031755</v>
       </c>
       <c r="D239" t="n">
-        <v>1448.005980181656</v>
+        <v>1448.00610111641</v>
       </c>
       <c r="E239" t="n">
-        <v>1504.583549928036</v>
+        <v>1504.583675588042</v>
       </c>
       <c r="F239" t="n">
         <v>1620470</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>1511.90478515625</v>
+        <v>1511.904907226562</v>
       </c>
       <c r="C243" t="n">
-        <v>1534.964134400956</v>
+        <v>1534.964258333067</v>
       </c>
       <c r="D243" t="n">
-        <v>1490.289829434589</v>
+        <v>1490.289949759722</v>
       </c>
       <c r="E243" t="n">
-        <v>1534.964134400956</v>
+        <v>1534.964258333067</v>
       </c>
       <c r="F243" t="n">
         <v>1347454</v>
@@ -5301,16 +5301,16 @@
         <v>45288</v>
       </c>
       <c r="B244" t="n">
-        <v>1500.001708984375</v>
+        <v>1500.001586914062</v>
       </c>
       <c r="C244" t="n">
-        <v>1525.999456078237</v>
+        <v>1525.999331892225</v>
       </c>
       <c r="D244" t="n">
-        <v>1496.116960202031</v>
+        <v>1496.11683844786</v>
       </c>
       <c r="E244" t="n">
-        <v>1521.815955292443</v>
+        <v>1521.815831446884</v>
       </c>
       <c r="F244" t="n">
         <v>676529</v>
